--- a/Semester_3/Biology_Practicals/Observations/For_Oct1_2012.xlsx
+++ b/Semester_3/Biology_Practicals/Observations/For_Oct1_2012.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A. S. Aurora\Documents\IISER_repo\Semester_3\Biology_Practicals\Observations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="9015" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wrong" sheetId="5" r:id="rId1"/>
     <sheet name="Vial1_Stuck" sheetId="1" r:id="rId2"/>
-    <sheet name="Vial3" sheetId="2" r:id="rId3"/>
-    <sheet name="Vial5" sheetId="3" r:id="rId4"/>
-    <sheet name="Vial1_clean" sheetId="4" r:id="rId5"/>
-    <sheet name="Vial4" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Vial1 (combined)" sheetId="8" r:id="rId3"/>
+    <sheet name="Vial3" sheetId="2" r:id="rId4"/>
+    <sheet name="Vial5" sheetId="3" r:id="rId5"/>
+    <sheet name="Vial1_clean" sheetId="4" r:id="rId6"/>
+    <sheet name="Vial4" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>October 1,2012</t>
   </si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>Vial 2 Dark</t>
+  </si>
+  <si>
+    <t>G2</t>
   </si>
 </sst>
 </file>
@@ -109,6 +118,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -156,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +485,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +565,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2,B6)</f>
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <f>SUM(C2,C6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3,B7)</f>
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3,C7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -624,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -674,12 +790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -774,11 +890,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
